--- a/data/trans_bre/P53_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P53_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -625,37 +641,47 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,61</t>
+          <t>10,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,76</t>
+          <t>10,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,19</t>
+          <t>8,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>87,04%</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>74,4%</t>
+          <t>87,05%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>64,84%</t>
+          <t>63,4%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>55,98%</t>
+          <t>51,54%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>43,22%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-26,79%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,89; 24,16</t>
+          <t>2,85; 23,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 24,69</t>
+          <t>-0,18; 22,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 23,6</t>
+          <t>-4,54; 22,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 22,91</t>
+          <t>-4,2; 21,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,89; 225,08</t>
+          <t>-12,57; 7,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 219,65</t>
+          <t>13,73; 220,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 203,98</t>
+          <t>-7,38; 175,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 211,01</t>
+          <t>-18,42; 203,33</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-18,01; 169,38</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-79,98; 148,17</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>-6,07</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-1,06%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-12,83%</t>
+          <t>-9,53%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-15,53%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-39,47%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 12,26</t>
+          <t>-12,25; 13,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 10,8</t>
+          <t>-12,9; 10,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 12,17</t>
+          <t>-19,16; 11,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,5; 9,45</t>
+          <t>-21,01; 8,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,55; 89,94</t>
+          <t>-22,5; 2,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,88; 97,15</t>
+          <t>-39,72; 100,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,55; 84,88</t>
+          <t>-53,15; 91,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,13; 51,71</t>
+          <t>-54,79; 75,18</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-52,6; 45,38</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-80,64; 36,03</t>
         </is>
       </c>
     </row>
@@ -825,37 +881,47 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,17</t>
+          <t>-7,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,25</t>
+          <t>-5,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-8,59</t>
+          <t>-8,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-37,17%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-24,57%</t>
+          <t>-30,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-39,66%</t>
+          <t>-24,39%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-39,1%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-14,5%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 9,6</t>
+          <t>-6,42; 9,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,44; -0,73</t>
+          <t>-17,52; 1,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 2,66</t>
+          <t>-15,6; 4,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 1,08</t>
+          <t>-21,2; 1,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,3; 70,52</t>
+          <t>-9,53; 3,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-60,78; -4,6</t>
+          <t>-27,57; 68,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-54,89; 16,54</t>
+          <t>-54,95; 6,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-68,19; 9,13</t>
+          <t>-53,59; 28,05</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-68,29; 11,16</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-64,16; 69,2</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,25</t>
+          <t>10,26</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,56</t>
+          <t>11,07</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>7,61</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>61,71%</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>58,41%</t>
+          <t>61,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>37,56%</t>
+          <t>61,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>45,79%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21,34%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>48,72%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,67; 17,45</t>
+          <t>3,54; 16,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 17,58</t>
+          <t>3,1; 18,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 14,21</t>
+          <t>-0,84; 15,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 13,1</t>
+          <t>-5,42; 12,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,34; 126,38</t>
+          <t>-0,87; 10,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,97; 128,33</t>
+          <t>16,83; 123,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 102,82</t>
+          <t>12,3; 139,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 91,09</t>
+          <t>-4,91; 131,1</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-22,34; 81,8</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-8,55; 139,62</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14,0</t>
+          <t>14,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>15,96</t>
+          <t>14,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,54</t>
+          <t>9,35</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,55</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>60,64%</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>68,95%</t>
+          <t>60,65%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>62,01%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>27,63%</t>
+          <t>35,52%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>25,76%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>50,3%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,9; 23,21</t>
+          <t>3,73; 22,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,56; 26,46</t>
+          <t>3,32; 23,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 20,71</t>
+          <t>-2,52; 20,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 18,25</t>
+          <t>-3,73; 18,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,19; 123,78</t>
+          <t>-0,77; 18,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,16; 150,12</t>
+          <t>10,78; 117,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 97,79</t>
+          <t>10,2; 129,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 87,28</t>
+          <t>-8,49; 93,84</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-12,13; 82,72</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-6,13; 129,61</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>20,55</t>
+          <t>20,54</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,86</t>
+          <t>16,29</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23,63</t>
+          <t>24,14</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,93</t>
+          <t>26,75</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>67,31%</t>
+          <t>18,72</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>57,05%</t>
+          <t>67,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>111,29%</t>
+          <t>64,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>108,07%</t>
+          <t>109,98%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>127,05%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>78,84%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,05; 29,37</t>
+          <t>10,81; 29,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,64; 26,03</t>
+          <t>5,49; 26,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,15; 35,39</t>
+          <t>12,12; 36,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,16; 35,4</t>
+          <t>15,73; 38,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,3; 121,03</t>
+          <t>6,88; 32,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,82; 127,58</t>
+          <t>31,32; 118,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>42,36; 214,41</t>
+          <t>16,92; 129,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>41,84; 207,4</t>
+          <t>44,36; 240,42</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>57,58; 241,75</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>21,82; 189,32</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,34</t>
+          <t>10,33</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>50,45%</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>29,94%</t>
+          <t>50,42%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>33,13%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>29,07%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>19,37%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>31,39%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,2; 14,19</t>
+          <t>6,62; 14,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,13; 11,17</t>
+          <t>2,79; 10,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,3; 10,76</t>
+          <t>1,26; 10,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 9,08</t>
+          <t>-0,91; 9,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,54; 76,95</t>
+          <t>-0,32; 8,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,46; 57,39</t>
+          <t>27,8; 75,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,44; 58,54</t>
+          <t>11,58; 57,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 46,89</t>
+          <t>4,33; 55,61</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-4,39; 45,32</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 70,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
